--- a/polities.xlsx
+++ b/polities.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8940" yWindow="3720" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
   </bookViews>
@@ -16,11 +11,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1205,11 +1200,11 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="8" customWidth="1"/>
@@ -1220,7 +1215,7 @@
     <col min="10" max="10" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1275,11 +1270,11 @@
         <v>125000000</v>
       </c>
       <c r="H2" s="4">
-        <f>F2+G2</f>
+        <f t="shared" ref="H2:H33" si="0">F2+G2</f>
         <v>220000000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1299,14 +1294,14 @@
         <v>60000000</v>
       </c>
       <c r="H3" s="4">
-        <f>F3+G3</f>
+        <f t="shared" si="0"/>
         <v>60000000</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1329,14 +1324,14 @@
         <v>8000000</v>
       </c>
       <c r="H4" s="4">
-        <f>F4+G4</f>
+        <f t="shared" si="0"/>
         <v>48000000</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1348,7 @@
         <v>30000000</v>
       </c>
       <c r="H5" s="4">
-        <f>F5+G5</f>
+        <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
       <c r="I5" t="s">
@@ -1363,7 +1358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -1383,14 +1378,14 @@
         <v>18600000</v>
       </c>
       <c r="H6" s="4">
-        <f>F6+G6</f>
+        <f t="shared" si="0"/>
         <v>18600000</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1410,14 +1405,14 @@
         <v>10000000</v>
       </c>
       <c r="H7" s="4">
-        <f>F7+G7</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1437,14 +1432,14 @@
         <v>6300000</v>
       </c>
       <c r="H8" s="4">
-        <f>F8+G8</f>
+        <f t="shared" si="0"/>
         <v>6300000</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1461,11 +1456,11 @@
         <v>5500000</v>
       </c>
       <c r="H9" s="4">
-        <f>F9+G9</f>
+        <f t="shared" si="0"/>
         <v>5500000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1485,14 +1480,14 @@
         <v>4000000</v>
       </c>
       <c r="H10" s="4">
-        <f>F10+G10</f>
+        <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -1512,14 +1507,14 @@
         <v>2000000</v>
       </c>
       <c r="H11" s="4">
-        <f>F11+G11</f>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
       <c r="I11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1536,11 +1531,11 @@
         <v>2000000</v>
       </c>
       <c r="H12" s="4">
-        <f>F12+G12</f>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1557,14 +1552,14 @@
         <v>1500000</v>
       </c>
       <c r="H13" s="4">
-        <f>F13+G13</f>
+        <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1584,14 +1579,14 @@
         <v>1100000</v>
       </c>
       <c r="H14" s="4">
-        <f>F14+G14</f>
+        <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
       <c r="I14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1611,14 +1606,14 @@
         <v>1000000</v>
       </c>
       <c r="H15" s="4">
-        <f>F15+G15</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1632,14 +1627,14 @@
         <v>950000</v>
       </c>
       <c r="H16" s="4">
-        <f>F16+G16</f>
+        <f t="shared" si="0"/>
         <v>950000</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -1659,14 +1654,14 @@
         <v>850000</v>
       </c>
       <c r="H17" s="4">
-        <f>F17+G17</f>
+        <f t="shared" si="0"/>
         <v>850000</v>
       </c>
       <c r="I17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1683,14 +1678,14 @@
         <v>800000</v>
       </c>
       <c r="H18" s="4">
-        <f>F18+G18</f>
+        <f t="shared" si="0"/>
         <v>800000</v>
       </c>
       <c r="I18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1713,7 +1708,7 @@
         <v>600000</v>
       </c>
       <c r="H19" s="4">
-        <f>F19+G19</f>
+        <f t="shared" si="0"/>
         <v>608000</v>
       </c>
       <c r="I19" t="s">
@@ -1723,7 +1718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1743,14 +1738,14 @@
         <v>500000</v>
       </c>
       <c r="H20" s="4">
-        <f>F20+G20</f>
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="I20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1770,11 +1765,11 @@
         <v>500000</v>
       </c>
       <c r="H21" s="4">
-        <f>F21+G21</f>
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1794,7 +1789,7 @@
         <v>350000</v>
       </c>
       <c r="H22" s="4">
-        <f>F22+G22</f>
+        <f t="shared" si="0"/>
         <v>350000</v>
       </c>
       <c r="I22" t="s">
@@ -1804,7 +1799,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1821,14 +1816,14 @@
         <v>250000</v>
       </c>
       <c r="H23" s="4">
-        <f>F23+G23</f>
+        <f t="shared" si="0"/>
         <v>250000</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -1848,14 +1843,14 @@
         <v>250000</v>
       </c>
       <c r="H24" s="4">
-        <f>F24+G24</f>
+        <f t="shared" si="0"/>
         <v>250000</v>
       </c>
       <c r="I24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -1875,14 +1870,14 @@
         <v>215000</v>
       </c>
       <c r="H25" s="4">
-        <f>F25+G25</f>
+        <f t="shared" si="0"/>
         <v>215000</v>
       </c>
       <c r="I25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1902,14 +1897,14 @@
         <v>200000</v>
       </c>
       <c r="H26" s="4">
-        <f>F26+G26</f>
+        <f t="shared" si="0"/>
         <v>200000</v>
       </c>
       <c r="I26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -1929,14 +1924,14 @@
         <v>120000</v>
       </c>
       <c r="H27" s="4">
-        <f>F27+G27</f>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="I27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -1956,14 +1951,14 @@
         <v>80000</v>
       </c>
       <c r="H28" s="4">
-        <f>F28+G28</f>
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="I28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1983,14 +1978,14 @@
         <v>75000</v>
       </c>
       <c r="H29" s="4">
-        <f>F29+G29</f>
+        <f t="shared" si="0"/>
         <v>75000</v>
       </c>
       <c r="I29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -2010,14 +2005,14 @@
         <v>50000</v>
       </c>
       <c r="H30" s="4">
-        <f>F30+G30</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="I30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2034,14 +2029,14 @@
         <v>50000</v>
       </c>
       <c r="H31" s="4">
-        <f>F31+G31</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="I31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>187</v>
       </c>
@@ -2061,14 +2056,14 @@
         <v>40000</v>
       </c>
       <c r="H32" s="4">
-        <f>F32+G32</f>
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
       <c r="I32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -2088,14 +2083,14 @@
         <v>30000</v>
       </c>
       <c r="H33" s="4">
-        <f>F33+G33</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="I33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
         <v>195</v>
       </c>
@@ -2115,14 +2110,14 @@
         <v>20000</v>
       </c>
       <c r="H34" s="4">
-        <f>F34+G34</f>
+        <f t="shared" ref="H34:H65" si="1">F34+G34</f>
         <v>20000</v>
       </c>
       <c r="I34" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>20000</v>
       </c>
       <c r="H35" s="4">
-        <f>F35+G35</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="I35" t="s">
@@ -2149,7 +2144,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -2169,14 +2164,14 @@
         <v>20000</v>
       </c>
       <c r="H36" s="4">
-        <f>F36+G36</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="I36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>173</v>
       </c>
@@ -2199,7 +2194,7 @@
         <v>8000</v>
       </c>
       <c r="H37" s="4">
-        <f>F37+G37</f>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="I37" t="s">
@@ -2209,7 +2204,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2226,7 +2221,7 @@
         <v>17000</v>
       </c>
       <c r="H38" s="4">
-        <f>F38+G38</f>
+        <f t="shared" si="1"/>
         <v>17000</v>
       </c>
       <c r="I38" t="s">
@@ -2236,7 +2231,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -2256,14 +2251,14 @@
         <v>15500</v>
       </c>
       <c r="H39" s="4">
-        <f>F39+G39</f>
+        <f t="shared" si="1"/>
         <v>15500</v>
       </c>
       <c r="I39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -2283,14 +2278,14 @@
         <v>15000</v>
       </c>
       <c r="H40" s="4">
-        <f>F40+G40</f>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="I40" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -2307,14 +2302,14 @@
         <v>12500</v>
       </c>
       <c r="H41" s="4">
-        <f>F41+G41</f>
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="I41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2334,7 +2329,7 @@
         <v>10000</v>
       </c>
       <c r="H42" s="4">
-        <f>F42+G42</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="I42" t="s">
@@ -2344,7 +2339,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2364,14 +2359,14 @@
         <v>10000</v>
       </c>
       <c r="H43" s="4">
-        <f>F43+G43</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="I43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -2391,14 +2386,14 @@
         <v>10000</v>
       </c>
       <c r="H44" s="4">
-        <f>F44+G44</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="I44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2415,7 +2410,7 @@
         <v>10000</v>
       </c>
       <c r="H45" s="4">
-        <f>F45+G45</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="I45" t="s">
@@ -2425,7 +2420,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>123</v>
       </c>
@@ -2442,14 +2437,14 @@
         <v>9000</v>
       </c>
       <c r="H46" s="4">
-        <f>F46+G46</f>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="I46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2469,7 +2464,7 @@
         <v>8000</v>
       </c>
       <c r="H47" s="4">
-        <f>F47+G47</f>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="I47" t="s">
@@ -2479,7 +2474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -2499,14 +2494,14 @@
         <v>7000</v>
       </c>
       <c r="H48" s="4">
-        <f>F48+G48</f>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="I48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -2523,14 +2518,14 @@
         <v>7000</v>
       </c>
       <c r="H49" s="4">
-        <f>F49+G49</f>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="I49" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -2550,14 +2545,14 @@
         <v>5000</v>
       </c>
       <c r="H50" s="4">
-        <f>F50+G50</f>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J50" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -2577,14 +2572,14 @@
         <v>4000</v>
       </c>
       <c r="H51" s="4">
-        <f>F51+G51</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="J51" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -2604,14 +2599,14 @@
         <v>4000</v>
       </c>
       <c r="H52" s="4">
-        <f>F52+G52</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="I52" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -2628,14 +2623,14 @@
         <v>4000</v>
       </c>
       <c r="H53" s="4">
-        <f>F53+G53</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="I53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2652,14 +2647,14 @@
         <v>3500</v>
       </c>
       <c r="H54" s="4">
-        <f>F54+G54</f>
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="I54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -2676,14 +2671,14 @@
         <v>3000</v>
       </c>
       <c r="H55" s="4">
-        <f>F55+G55</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="I55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -2700,14 +2695,14 @@
         <v>3000</v>
       </c>
       <c r="H56" s="4">
-        <f>F56+G56</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="I56" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -2727,14 +2722,14 @@
         <v>3000</v>
       </c>
       <c r="H57" s="4">
-        <f>F57+G57</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="I57" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -2754,14 +2749,14 @@
         <v>3000</v>
       </c>
       <c r="H58" s="4">
-        <f>F58+G58</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="I58" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>182</v>
       </c>
@@ -2781,14 +2776,14 @@
         <v>2500</v>
       </c>
       <c r="H59" s="4">
-        <f>F59+G59</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="I59" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>164</v>
       </c>
@@ -2808,14 +2803,14 @@
         <v>2500</v>
       </c>
       <c r="H60" s="4">
-        <f>F60+G60</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="I60" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -2835,14 +2830,14 @@
         <v>2000</v>
       </c>
       <c r="H61" s="4">
-        <f>F61+G61</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="I61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>154</v>
       </c>
@@ -2859,14 +2854,14 @@
         <v>1700</v>
       </c>
       <c r="H62" s="4">
-        <f>F62+G62</f>
+        <f t="shared" si="1"/>
         <v>1700</v>
       </c>
       <c r="I62" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -2886,11 +2881,11 @@
         <v>1500</v>
       </c>
       <c r="H63" s="4">
-        <f>F63+G63</f>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>171</v>
       </c>
@@ -2910,11 +2905,11 @@
         <v>1200</v>
       </c>
       <c r="H64" s="4">
-        <f>F64+G64</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -2934,14 +2929,14 @@
         <v>1000</v>
       </c>
       <c r="H65" s="4">
-        <f>F65+G65</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="I65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="6" t="s">
         <v>175</v>
       </c>
@@ -2961,14 +2956,14 @@
         <v>1000</v>
       </c>
       <c r="H66" s="4">
-        <f>F66+G66</f>
+        <f t="shared" ref="H66:H97" si="2">F66+G66</f>
         <v>1000</v>
       </c>
       <c r="I66" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -2985,14 +2980,14 @@
         <v>1000</v>
       </c>
       <c r="H67" s="4">
-        <f>F67+G67</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="I67" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -3012,14 +3007,14 @@
         <v>1000</v>
       </c>
       <c r="H68" s="4">
-        <f>F68+G68</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="I68" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>198</v>
       </c>
@@ -3036,7 +3031,7 @@
         <v>1000</v>
       </c>
       <c r="H69" s="4">
-        <f>F69+G69</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="I69" t="s">
@@ -3050,5 +3045,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/polities.xlsx
+++ b/polities.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="3720" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="8640" yWindow="4760" windowWidth="30160" windowHeight="21780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="206">
   <si>
     <t>Polity</t>
   </si>
@@ -668,6 +668,28 @@
   </si>
   <si>
     <t>Cantonese, English, Polish</t>
+  </si>
+  <si>
+    <t>LLA</t>
+  </si>
+  <si>
+    <t>Morningstar</t>
+  </si>
+  <si>
+    <r>
+      <t>Autonomist/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extropian</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1200,13 +1222,14 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" style="4" customWidth="1"/>
@@ -1251,7 +1274,7 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
@@ -1305,7 +1328,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C4" t="s">
@@ -1335,6 +1358,9 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1443,6 +1469,9 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
@@ -1689,7 +1718,7 @@
       <c r="A19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
@@ -1962,7 +1991,7 @@
       <c r="A29" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C29" t="s">
@@ -2343,7 +2372,7 @@
       <c r="A43" t="s">
         <v>115</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C43" t="s">
@@ -2956,7 +2985,7 @@
         <v>1000</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" ref="H66:H97" si="2">F66+G66</f>
+        <f t="shared" ref="H66:H69" si="2">F66+G66</f>
         <v>1000</v>
       </c>
       <c r="I66" t="s">

--- a/polities.xlsx
+++ b/polities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="4760" windowWidth="30160" windowHeight="21780" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
   <si>
     <t>Polity</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Citizens</t>
-  </si>
-  <si>
-    <t>Population total</t>
   </si>
   <si>
     <t>Ceres</t>
@@ -690,6 +687,24 @@
       </rPr>
       <t>Extropian</t>
     </r>
+  </si>
+  <si>
+    <t>Omnicor</t>
+  </si>
+  <si>
+    <t>Venus / Mercury</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>75k on Far Reach II, 20k on Monolith-3</t>
+  </si>
+  <si>
+    <t>Japanese, Russian</t>
+  </si>
+  <si>
+    <t>[Population size uncertain - material is hazy. 10M Infomorphs or uplifts are not citizens.]</t>
   </si>
 </sst>
 </file>
@@ -819,7 +834,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -827,8 +842,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1219,18 +1242,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -1238,53 +1261,54 @@
     <col min="10" max="10" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
+      <c r="H1" s="8" t="str">
+        <f>"Population total (of "&amp;INT(SUM(H2:H999)/1000000)&amp;" M)"</f>
+        <v>Population total (of 421 M)</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="8">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7">
         <v>1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3">
         <v>95000000</v>
@@ -1293,35 +1317,35 @@
         <v>125000000</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H33" si="0">F2+G2</f>
+        <f>F2+G2</f>
         <v>220000000</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7">
         <v>9.5</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3">
         <v>60000000</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" si="0"/>
+        <f>F3+G3</f>
         <v>60000000</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1329,16 +1353,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="8">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7">
         <v>5.2</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3">
         <v>40000000</v>
@@ -1347,68 +1371,71 @@
         <v>8000000</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
+        <f>F4+G4</f>
         <v>48000000</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2">
-        <v>30000000</v>
+        <v>25000000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10000000</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>30000000</v>
+        <f>F5+G5</f>
+        <v>35000000</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="8">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="F6" s="3">
         <v>18600000</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
+        <f>F6+G6</f>
         <v>18600000</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1416,151 +1443,151 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3">
         <v>10000000</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
+        <f>F7+G7</f>
         <v>10000000</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7">
         <v>9.5</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3">
         <v>6300000</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
+        <f>F8+G8</f>
         <v>6300000</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7">
         <v>0.72</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>5500000</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
+        <f>F9+G9</f>
         <v>5500000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7">
         <v>5.2</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2">
         <v>4000000</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
+        <f>F10+G10</f>
         <v>4000000</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="8">
+        <v>192</v>
+      </c>
+      <c r="D11" s="7">
         <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
         <v>2000000</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
+        <f>F11+G11</f>
         <v>2000000</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7">
         <v>5.2</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3">
         <v>2000000</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
+        <f>F12+G12</f>
         <v>2000000</v>
       </c>
     </row>
@@ -1569,166 +1596,166 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
         <v>5.2</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="3">
         <v>1500000</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
+        <f>F13+G13</f>
         <v>1500000</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="8">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7">
         <v>9.5</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3">
         <v>1100000</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="0"/>
+        <f>F14+G14</f>
         <v>1100000</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="8">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
         <v>2.8</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3">
         <v>1000000</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
+        <f>F15+G15</f>
         <v>1000000</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>9.5</v>
       </c>
       <c r="F16" s="3">
         <v>950000</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
+        <f>F16+G16</f>
         <v>950000</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7">
         <v>9.5</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="3">
         <v>850000</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
+        <f>F17+G17</f>
         <v>850000</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>9.5</v>
       </c>
       <c r="F18" s="3">
         <v>800000</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
+        <f>F18+G18</f>
         <v>800000</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="8">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="3">
         <v>8000</v>
@@ -1737,1339 +1764,1366 @@
         <v>600000</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="0"/>
+        <f>F19+G19</f>
         <v>608000</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="3">
         <v>500000</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
+        <f>F20+G20</f>
         <v>500000</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="8">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7">
         <v>9.5</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3">
         <v>500000</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
+        <f>F21+G21</f>
         <v>500000</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>9.5</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="3">
         <v>350000</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="0"/>
+        <f>F22+G22</f>
         <v>350000</v>
       </c>
       <c r="I22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" t="s">
         <v>67</v>
-      </c>
-      <c r="J22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="8">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
         <v>2.4</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>250000</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="0"/>
+        <f>F23+G23</f>
         <v>250000</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="8">
+        <v>191</v>
+      </c>
+      <c r="D24" s="7">
         <v>5.5</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="3">
         <v>250000</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="0"/>
+        <f>F24+G24</f>
         <v>250000</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
         <v>106</v>
       </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="8">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7">
         <v>9.5</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3">
         <v>215000</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
+        <f>F25+G25</f>
         <v>215000</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="8">
+        <v>32</v>
+      </c>
+      <c r="D26" s="7">
         <v>9.5</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="3">
         <v>200000</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
+        <f>F26+G26</f>
         <v>200000</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" t="s">
         <v>200</v>
       </c>
-      <c r="B27" t="s">
-        <v>201</v>
-      </c>
       <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="8">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7">
         <v>0.7</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3">
         <v>120000</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="0"/>
+        <f>F27+G27</f>
         <v>120000</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="8">
-        <v>5.2</v>
+        <v>206</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.5</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="F28" s="3">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <f>F28+G28</f>
+        <v>95000</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="8">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5.2</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="3">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>75000</v>
+        <f>F29+G29</f>
+        <v>80000</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="8">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F30" s="3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>50000</v>
+        <f>F30+G30</f>
+        <v>75000</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="8">
-        <v>9.5</v>
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="F31" s="3">
         <v>50000</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
+        <f>F31+G31</f>
         <v>50000</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="8">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9.5</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="F32" s="3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f>F32+G32</f>
+        <v>50000</v>
       </c>
       <c r="I32" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="8">
+        <v>187</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H33" s="4">
+        <f>F33+G33</f>
+        <v>40000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="7">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3">
         <v>30000</v>
       </c>
-      <c r="H33" s="4">
-        <f t="shared" si="0"/>
+      <c r="H34" s="4">
+        <f>F34+G34</f>
         <v>30000</v>
       </c>
-      <c r="I33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
+      <c r="I34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
         <v>195</v>
       </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="D35" s="7">
         <v>0.4</v>
       </c>
-      <c r="E34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" ref="H34:H65" si="1">F34+G34</f>
-        <v>20000</v>
-      </c>
-      <c r="I34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="8">
-        <v>30</v>
-      </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="F35" s="3">
         <v>20000</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="1"/>
+        <f>F35+G35</f>
         <v>20000</v>
       </c>
       <c r="I35" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="8">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="D36" s="7">
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="F36" s="3">
         <v>20000</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="1"/>
+        <f>F36+G36</f>
         <v>20000</v>
       </c>
       <c r="I36" t="s">
-        <v>169</v>
+        <v>137</v>
+      </c>
+      <c r="J36" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="8">
-        <v>5.2</v>
+        <v>166</v>
+      </c>
+      <c r="D37" s="7">
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G37" s="4">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="1"/>
-        <v>18000</v>
+        <f>F37+G37</f>
+        <v>20000</v>
       </c>
       <c r="I37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="8">
+        <v>93</v>
+      </c>
+      <c r="D38" s="7">
         <v>5.2</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3">
-        <v>17000</v>
+        <v>10000</v>
+      </c>
+      <c r="G38" s="4">
+        <v>8000</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="1"/>
-        <v>17000</v>
+        <f>F38+G38</f>
+        <v>18000</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="8">
         <v>30</v>
       </c>
+      <c r="D39" s="7">
+        <v>5.2</v>
+      </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F39" s="3">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="1"/>
-        <v>15500</v>
+        <f>F39+G39</f>
+        <v>17000</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="J39" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="8">
-        <v>5.2</v>
+        <v>119</v>
+      </c>
+      <c r="D40" s="7">
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F40" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <f>F40+G40</f>
+        <v>15500</v>
       </c>
       <c r="I40" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="8">
-        <v>37</v>
+        <v>93</v>
+      </c>
+      <c r="D41" s="7">
+        <v>5.2</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="3">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="1"/>
-        <v>12500</v>
+        <f>F41+G41</f>
+        <v>15000</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="8">
-        <v>19</v>
+        <v>121</v>
+      </c>
+      <c r="D42" s="7">
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F42" s="3">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f>F42+G42</f>
+        <v>12500</v>
       </c>
       <c r="I42" t="s">
-        <v>113</v>
-      </c>
-      <c r="J42" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="8">
+        <v>111</v>
+      </c>
+      <c r="D43" s="7">
         <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" s="3">
         <v>10000</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="1"/>
+        <f>F43+G43</f>
         <v>10000</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="J43" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="8">
+        <v>111</v>
+      </c>
+      <c r="D44" s="7">
         <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="3">
         <v>10000</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="1"/>
+        <f>F44+G44</f>
         <v>10000</v>
       </c>
       <c r="I44" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="8">
-        <v>30</v>
+        <v>111</v>
+      </c>
+      <c r="D45" s="7">
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F45" s="3">
         <v>10000</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="1"/>
+        <f>F45+G45</f>
         <v>10000</v>
       </c>
       <c r="I45" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="8">
-        <v>48</v>
+        <v>119</v>
+      </c>
+      <c r="D46" s="7">
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F46" s="3">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="1"/>
-        <v>9000</v>
+        <f>F46+G46</f>
+        <v>10000</v>
       </c>
       <c r="I46" t="s">
-        <v>124</v>
+        <v>146</v>
+      </c>
+      <c r="J46" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="8">
-        <v>5.2</v>
+        <v>167</v>
+      </c>
+      <c r="D47" s="7">
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F47" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <f>F47+G47</f>
+        <v>9000</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
-      </c>
-      <c r="J47" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="8">
         <v>30</v>
       </c>
+      <c r="D48" s="7">
+        <v>5.2</v>
+      </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F48" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="1"/>
-        <v>7000</v>
+        <f>F48+G48</f>
+        <v>8000</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="8">
+        <v>119</v>
+      </c>
+      <c r="D49" s="7">
         <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F49" s="3">
         <v>7000</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="1"/>
+        <f>F49+G49</f>
         <v>7000</v>
       </c>
       <c r="I49" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="8">
-        <v>19</v>
+        <v>119</v>
+      </c>
+      <c r="D50" s="7">
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F50" s="3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="J50" t="s">
-        <v>131</v>
+        <f>F50+G50</f>
+        <v>7000</v>
+      </c>
+      <c r="I50" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="8">
-        <v>3</v>
+        <v>111</v>
+      </c>
+      <c r="D51" s="7">
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F51" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <f>F51+G51</f>
+        <v>5000</v>
       </c>
       <c r="J51" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="8">
-        <v>23</v>
+        <v>102</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F52" s="3">
         <v>4000</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="1"/>
+        <f>F52+G52</f>
         <v>4000</v>
       </c>
-      <c r="I52" t="s">
-        <v>158</v>
+      <c r="J52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="8">
-        <v>30</v>
+        <v>121</v>
+      </c>
+      <c r="D53" s="7">
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="F53" s="3">
         <v>4000</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="1"/>
+        <f>F53+G53</f>
         <v>4000</v>
       </c>
       <c r="I53" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="8">
-        <v>5.2</v>
+        <v>119</v>
+      </c>
+      <c r="D54" s="7">
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F54" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="1"/>
-        <v>3500</v>
+        <f>F54+G54</f>
+        <v>4000</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="8">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="D55" s="7">
+        <v>5.2</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="F55" s="3">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f>F55+G55</f>
+        <v>3500</v>
       </c>
       <c r="I55" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="8">
-        <v>30</v>
+        <v>121</v>
+      </c>
+      <c r="D56" s="7">
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F56" s="3">
         <v>3000</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="1"/>
+        <f>F56+G56</f>
         <v>3000</v>
       </c>
       <c r="I56" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="8">
+        <v>142</v>
+      </c>
+      <c r="D57" s="7">
         <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F57" s="3">
         <v>3000</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="1"/>
+        <f>F57+G57</f>
         <v>3000</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="8">
-        <v>35</v>
+        <v>149</v>
+      </c>
+      <c r="D58" s="7">
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F58" s="3">
         <v>3000</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="1"/>
+        <f>F58+G58</f>
         <v>3000</v>
       </c>
       <c r="I58" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="8">
-        <v>2</v>
+        <v>193</v>
+      </c>
+      <c r="D59" s="7">
+        <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="F59" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="1"/>
-        <v>2500</v>
+        <f>F59+G59</f>
+        <v>3000</v>
       </c>
       <c r="I59" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="8">
-        <v>35</v>
+        <v>102</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F60" s="3">
         <v>2500</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="1"/>
+        <f>F60+G60</f>
         <v>2500</v>
       </c>
       <c r="I60" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="8">
-        <v>19</v>
+        <v>121</v>
+      </c>
+      <c r="D61" s="7">
+        <v>35</v>
       </c>
       <c r="E61" t="s">
         <v>58</v>
       </c>
       <c r="F61" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f>F61+G61</f>
+        <v>2500</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="8">
-        <v>5.2</v>
+        <v>111</v>
+      </c>
+      <c r="D62" s="7">
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="F62" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="1"/>
-        <v>1700</v>
+        <f>F62+G62</f>
+        <v>2000</v>
       </c>
       <c r="I62" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="8">
-        <v>1.5</v>
+        <v>93</v>
+      </c>
+      <c r="D63" s="7">
+        <v>5.2</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="F63" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <f>F63+G63</f>
+        <v>1700</v>
+      </c>
+      <c r="I63" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="8">
-        <v>5.2</v>
+        <v>180</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1.5</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F64" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <f>F64+G64</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H65" s="4">
+        <f>F65+G65</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
         <v>80</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="E66" t="s">
         <v>81</v>
-      </c>
-      <c r="C65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H65" s="4">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="I65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>104</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" ref="H66:H69" si="2">F66+G66</f>
+        <f>F66+G66</f>
         <v>1000</v>
       </c>
       <c r="I66" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>127</v>
+      <c r="A67" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="8">
-        <v>19</v>
+        <v>102</v>
+      </c>
+      <c r="D67" s="7">
+        <v>5.5</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F67" s="3">
         <v>1000</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="2"/>
+        <f>F67+G67</f>
         <v>1000</v>
       </c>
       <c r="I67" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="8">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="D68" s="7">
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F68" s="3">
         <v>1000</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="2"/>
+        <f>F68+G68</f>
         <v>1000</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="8">
-        <v>5.2</v>
+        <v>121</v>
+      </c>
+      <c r="D69" s="7">
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F69" s="3">
         <v>1000</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="2"/>
+        <f>F69+G69</f>
         <v>1000</v>
       </c>
       <c r="I69" t="s">
-        <v>199</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H70" s="4">
+        <f>F70+G70</f>
+        <v>1000</v>
+      </c>
+      <c r="I70" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J69">
-    <sortCondition descending="1" ref="H2:H69"/>
+  <sortState ref="A2:J70">
+    <sortCondition descending="1" ref="H2:H70"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/polities.xlsx
+++ b/polities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="13300" yWindow="3640" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>Dare Talvitie</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="F68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1246,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1296,922 +1296,919 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3">
-        <v>95000000</v>
-      </c>
-      <c r="G2" s="4">
-        <v>125000000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="4">
         <f>F2+G2</f>
-        <v>220000000</v>
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="A3" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D3" s="7">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3">
-        <v>60000000</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="4">
         <f>F3+G3</f>
-        <v>60000000</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D4" s="7">
-        <v>5.2</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3">
-        <v>40000000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>8000000</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="4">
         <f>F4+G4</f>
-        <v>48000000</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="2">
-        <v>25000000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10000000</v>
+        <v>84</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000</v>
       </c>
       <c r="H5" s="4">
         <f>F5+G5</f>
-        <v>35000000</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="A6" t="s">
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3">
-        <v>18600000</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="4">
         <f>F6+G6</f>
-        <v>18600000</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3">
-        <v>10000000</v>
+        <v>1200</v>
       </c>
       <c r="H7" s="4">
         <f>F7+G7</f>
-        <v>10000000</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3">
-        <v>6300000</v>
+        <v>1500</v>
       </c>
       <c r="H8" s="4">
         <f>F8+G8</f>
-        <v>6300000</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>0.72</v>
+        <v>5.2</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="F9" s="3">
-        <v>5500000</v>
+        <v>1700</v>
       </c>
       <c r="H9" s="4">
         <f>F9+G9</f>
-        <v>5500000</v>
+        <v>1700</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7">
-        <v>5.2</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4000000</v>
+        <v>57</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2000</v>
       </c>
       <c r="H10" s="4">
         <f>F10+G10</f>
-        <v>4000000</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
+        <v>2000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
+      <c r="A11" t="s">
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="D11" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F11" s="3">
-        <v>2000000</v>
+        <v>2500</v>
       </c>
       <c r="H11" s="4">
         <f>F11+G11</f>
-        <v>2000000</v>
+        <v>2500</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
       </c>
       <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="7">
         <v>35</v>
       </c>
-      <c r="D12" s="7">
-        <v>5.2</v>
-      </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3">
-        <v>2000000</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="4">
         <f>F12+G12</f>
-        <v>2000000</v>
+        <v>2500</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>5.2</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="F13" s="3">
-        <v>1500000</v>
+        <v>3000</v>
       </c>
       <c r="H13" s="4">
         <f>F13+G13</f>
-        <v>1500000</v>
+        <v>3000</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F14" s="3">
-        <v>1100000</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="4">
         <f>F14+G14</f>
-        <v>1100000</v>
+        <v>3000</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D15" s="7">
-        <v>2.8</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3">
-        <v>1000000</v>
+        <v>3000</v>
       </c>
       <c r="H15" s="4">
         <f>F15+G15</f>
-        <v>1000000</v>
+        <v>3000</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>9.5</v>
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="3">
-        <v>950000</v>
+        <v>3000</v>
       </c>
       <c r="H16" s="4">
         <f>F16+G16</f>
-        <v>950000</v>
+        <v>3000</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>9.5</v>
+        <v>5.2</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="3">
-        <v>850000</v>
+        <v>3500</v>
       </c>
       <c r="H17" s="4">
         <f>F17+G17</f>
-        <v>850000</v>
+        <v>3500</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D18" s="7">
-        <v>9.5</v>
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
       </c>
       <c r="F18" s="3">
-        <v>800000</v>
+        <v>4000</v>
       </c>
       <c r="H18" s="4">
         <f>F18+G18</f>
-        <v>800000</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
+        <v>4000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D19" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F19" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G19" s="4">
-        <v>600000</v>
+        <v>4000</v>
       </c>
       <c r="H19" s="4">
         <f>F19+G19</f>
-        <v>608000</v>
+        <v>4000</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D20" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="F20" s="3">
-        <v>500000</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="4">
         <f>F20+G20</f>
-        <v>500000</v>
+        <v>4000</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="D21" s="7">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F21" s="3">
-        <v>500000</v>
+        <v>5000</v>
       </c>
       <c r="H21" s="4">
         <f>F21+G21</f>
-        <v>500000</v>
+        <v>5000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="3">
-        <v>350000</v>
+        <v>7000</v>
       </c>
       <c r="H22" s="4">
         <f>F22+G22</f>
-        <v>350000</v>
+        <v>7000</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D23" s="7">
-        <v>2.4</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="H23" s="4">
         <f>F23+G23</f>
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F24" s="3">
-        <v>250000</v>
+        <v>8000</v>
+      </c>
+      <c r="G24" s="4">
+        <v>600000</v>
       </c>
       <c r="H24" s="4">
         <f>F24+G24</f>
-        <v>250000</v>
+        <v>608000</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>9.5</v>
+        <v>5.2</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F25" s="3">
-        <v>215000</v>
+        <v>8000</v>
       </c>
       <c r="H25" s="4">
         <f>F25+G25</f>
-        <v>215000</v>
+        <v>8000</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="J25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="D26" s="7">
-        <v>9.5</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3">
-        <v>200000</v>
+        <v>9000</v>
       </c>
       <c r="H26" s="4">
         <f>F26+G26</f>
-        <v>200000</v>
+        <v>9000</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D27" s="7">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="3">
-        <v>120000</v>
+        <v>10000</v>
+      </c>
+      <c r="G27" s="4">
+        <v>8000</v>
       </c>
       <c r="H27" s="4">
         <f>F27+G27</f>
-        <v>120000</v>
+        <v>18000</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="D28" s="7">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="F28" s="3">
-        <v>95000</v>
+        <v>10000</v>
       </c>
       <c r="H28" s="4">
         <f>F28+G28</f>
-        <v>95000</v>
+        <v>10000</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D29" s="7">
-        <v>5.2</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F29" s="3">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="H29" s="4">
         <f>F29+G29</f>
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D30" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F30" s="3">
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="H30" s="4">
         <f>F30+G30</f>
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D31" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="F31" s="3">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="H31" s="4">
         <f>F31+G31</f>
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>146</v>
+      </c>
+      <c r="J31" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="D32" s="7">
-        <v>9.5</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H32" s="4">
         <f>F32+G32</f>
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="D33" s="7">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="H33" s="4">
         <f>F33+G33</f>
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="D34" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="F34" s="3">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="H34" s="4">
         <f>F34+G34</f>
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="I34" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
+      <c r="A35" t="s">
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="D35" s="7">
-        <v>0.4</v>
+        <v>5.2</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="F35" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="H35" s="4">
         <f>F35+G35</f>
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="I35" t="s">
-        <v>196</v>
+        <v>48</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>135</v>
+      <c r="A36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="D36" s="7">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="F36" s="3">
         <v>20000</v>
@@ -2221,27 +2218,21 @@
         <v>20000</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="D37" s="7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F37" s="3">
         <v>20000</v>
@@ -2251,879 +2242,888 @@
         <v>20000</v>
       </c>
       <c r="I37" t="s">
-        <v>168</v>
+        <v>137</v>
+      </c>
+      <c r="J37" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="D38" s="7">
-        <v>5.2</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G38" s="4">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="H38" s="4">
         <f>F38+G38</f>
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="I38" t="s">
-        <v>184</v>
-      </c>
-      <c r="J38" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="D39" s="7">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F39" s="3">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="H39" s="4">
         <f>F39+G39</f>
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="D40" s="7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F40" s="3">
-        <v>15500</v>
+        <v>40000</v>
       </c>
       <c r="H40" s="4">
         <f>F40+G40</f>
-        <v>15500</v>
+        <v>40000</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D41" s="7">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="F41" s="3">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="H41" s="4">
         <f>F41+G41</f>
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="I41" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D42" s="7">
-        <v>37</v>
+        <v>9.5</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="F42" s="3">
-        <v>12500</v>
+        <v>50000</v>
       </c>
       <c r="H42" s="4">
         <f>F42+G42</f>
-        <v>12500</v>
+        <v>50000</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D43" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F43" s="3">
-        <v>10000</v>
+        <v>75000</v>
       </c>
       <c r="H43" s="4">
         <f>F43+G43</f>
-        <v>10000</v>
+        <v>75000</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D44" s="7">
-        <v>19</v>
+        <v>5.2</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F44" s="3">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="H44" s="4">
         <f>F44+G44</f>
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="I44" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="D45" s="7">
-        <v>19</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="F45" s="3">
-        <v>10000</v>
+        <v>95000</v>
       </c>
       <c r="H45" s="4">
         <f>F45+G45</f>
-        <v>10000</v>
+        <v>95000</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>209</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>199</v>
+      </c>
+      <c r="B46" t="s">
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D46" s="7">
-        <v>30</v>
+        <v>0.7</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F46" s="3">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="H46" s="4">
         <f>F46+G46</f>
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="I46" t="s">
-        <v>146</v>
-      </c>
-      <c r="J46" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="D47" s="7">
-        <v>48</v>
+        <v>9.5</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="3">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="H47" s="4">
         <f>F47+G47</f>
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="I47" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" s="7">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F48" s="3">
-        <v>8000</v>
+        <v>215000</v>
       </c>
       <c r="H48" s="4">
         <f>F48+G48</f>
-        <v>8000</v>
+        <v>215000</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="D49" s="7">
-        <v>30</v>
+        <v>2.4</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="3">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="H49" s="4">
         <f>F49+G49</f>
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="I49" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D50" s="7">
-        <v>30</v>
+        <v>5.5</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F50" s="3">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="H50" s="4">
         <f>F50+G50</f>
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="I50" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D51" s="7">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F51" s="3">
-        <v>5000</v>
+        <v>350000</v>
       </c>
       <c r="H51" s="4">
         <f>F51+G51</f>
-        <v>5000</v>
+        <v>350000</v>
+      </c>
+      <c r="I51" t="s">
+        <v>66</v>
       </c>
       <c r="J51" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D52" s="7">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F52" s="3">
-        <v>4000</v>
+        <v>500000</v>
       </c>
       <c r="H52" s="4">
         <f>F52+G52</f>
-        <v>4000</v>
-      </c>
-      <c r="J52" t="s">
-        <v>176</v>
+        <v>500000</v>
+      </c>
+      <c r="I52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D53" s="7">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F53" s="3">
-        <v>4000</v>
+        <v>500000</v>
       </c>
       <c r="H53" s="4">
         <f>F53+G53</f>
-        <v>4000</v>
-      </c>
-      <c r="I53" t="s">
-        <v>157</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D54" s="7">
-        <v>30</v>
-      </c>
-      <c r="E54" t="s">
-        <v>140</v>
+        <v>9.5</v>
       </c>
       <c r="F54" s="3">
-        <v>4000</v>
+        <v>800000</v>
       </c>
       <c r="H54" s="4">
         <f>F54+G54</f>
-        <v>4000</v>
+        <v>800000</v>
       </c>
       <c r="I54" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D55" s="7">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F55" s="3">
-        <v>3500</v>
+        <v>850000</v>
       </c>
       <c r="H55" s="4">
         <f>F55+G55</f>
-        <v>3500</v>
+        <v>850000</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D56" s="7">
-        <v>24</v>
-      </c>
-      <c r="E56" t="s">
-        <v>160</v>
+        <v>9.5</v>
       </c>
       <c r="F56" s="3">
-        <v>3000</v>
+        <v>950000</v>
       </c>
       <c r="H56" s="4">
         <f>F56+G56</f>
-        <v>3000</v>
+        <v>950000</v>
       </c>
       <c r="I56" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="D57" s="7">
-        <v>30</v>
+        <v>2.8</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="F57" s="3">
-        <v>3000</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="4">
         <f>F57+G57</f>
-        <v>3000</v>
+        <v>1000000</v>
       </c>
       <c r="I57" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="D58" s="7">
-        <v>30</v>
+        <v>9.5</v>
       </c>
       <c r="E58" t="s">
         <v>58</v>
       </c>
       <c r="F58" s="3">
-        <v>3000</v>
+        <v>1100000</v>
       </c>
       <c r="H58" s="4">
         <f>F58+G58</f>
-        <v>3000</v>
+        <v>1100000</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="D59" s="7">
-        <v>35</v>
+        <v>5.2</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F59" s="3">
-        <v>3000</v>
+        <v>1500000</v>
       </c>
       <c r="H59" s="4">
         <f>F59+G59</f>
-        <v>3000</v>
+        <v>1500000</v>
       </c>
       <c r="I59" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>181</v>
+      <c r="A60" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="D60" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F60" s="3">
-        <v>2500</v>
+        <v>2000000</v>
       </c>
       <c r="H60" s="4">
         <f>F60+G60</f>
-        <v>2500</v>
+        <v>2000000</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="D61" s="7">
-        <v>35</v>
+        <v>5.2</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F61" s="3">
-        <v>2500</v>
+        <v>2000000</v>
       </c>
       <c r="H61" s="4">
         <f>F61+G61</f>
-        <v>2500</v>
-      </c>
-      <c r="I61" t="s">
-        <v>164</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D62" s="7">
-        <v>19</v>
+        <v>5.2</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2000</v>
+        <v>59</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4000000</v>
       </c>
       <c r="H62" s="4">
         <f>F62+G62</f>
-        <v>2000</v>
-      </c>
-      <c r="I62" t="s">
-        <v>49</v>
+        <v>4000000</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>21</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D63" s="7">
-        <v>5.2</v>
+        <v>0.72</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="F63" s="3">
-        <v>1700</v>
+        <v>5500000</v>
       </c>
       <c r="H63" s="4">
         <f>F63+G63</f>
-        <v>1700</v>
-      </c>
-      <c r="I63" t="s">
-        <v>155</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="D64" s="7">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F64" s="3">
-        <v>1500</v>
+        <v>6300000</v>
       </c>
       <c r="H64" s="4">
         <f>F64+G64</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>6300000</v>
+      </c>
+      <c r="I64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D65" s="7">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F65" s="3">
-        <v>1200</v>
+        <v>10000000</v>
       </c>
       <c r="H65" s="4">
         <f>F65+G65</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>79</v>
+        <v>10000000</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D66" s="7">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="F66" s="3">
-        <v>1000</v>
+        <v>18600000</v>
       </c>
       <c r="H66" s="4">
         <f>F66+G66</f>
-        <v>1000</v>
+        <v>18600000</v>
       </c>
       <c r="I66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D67" s="7">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1000</v>
+        <v>58</v>
+      </c>
+      <c r="F67" s="2">
+        <v>25000000</v>
+      </c>
+      <c r="G67" s="4">
+        <v>10000000</v>
       </c>
       <c r="H67" s="4">
         <f>F67+G67</f>
-        <v>1000</v>
+        <v>35000000</v>
       </c>
       <c r="I67" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="D68" s="7">
-        <v>19</v>
+        <v>5.2</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F68" s="3">
-        <v>1000</v>
+        <v>40000000</v>
+      </c>
+      <c r="G68" s="4">
+        <v>8000000</v>
       </c>
       <c r="H68" s="4">
         <f>F68+G68</f>
-        <v>1000</v>
+        <v>48000000</v>
       </c>
       <c r="I68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D69" s="7">
-        <v>120</v>
+        <v>9.5</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F69" s="3">
-        <v>1000</v>
+        <v>60000000</v>
       </c>
       <c r="H69" s="4">
         <f>F69+G69</f>
-        <v>1000</v>
+        <v>60000000</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>20</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D70" s="7">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F70" s="3">
-        <v>1000</v>
+        <v>95000000</v>
+      </c>
+      <c r="G70" s="4">
+        <v>125000000</v>
       </c>
       <c r="H70" s="4">
         <f>F70+G70</f>
-        <v>1000</v>
-      </c>
-      <c r="I70" t="s">
-        <v>198</v>
+        <v>220000000</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:J70">
-    <sortCondition descending="1" ref="H2:H70"/>
+    <sortCondition ref="F6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/polities.xlsx
+++ b/polities.xlsx
@@ -1,33 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049197B-6B43-9C47-8CAC-E48936BA7D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="3640" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="8480" yWindow="3640" windowWidth="25120" windowHeight="15580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dare Talvitie</author>
   </authors>
   <commentList>
-    <comment ref="F68" authorId="0">
+    <comment ref="F69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G68" authorId="0">
+    <comment ref="G69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="214">
   <si>
     <t>Polity</t>
   </si>
@@ -706,11 +723,20 @@
   <si>
     <t>[Population size uncertain - material is hazy. 10M Infomorphs or uplifts are not citizens.]</t>
   </si>
+  <si>
+    <t>Mars (Orbit)</t>
+  </si>
+  <si>
+    <t>PC in Mars Orbit</t>
+  </si>
+  <si>
+    <t>Portugese, English, Mandarin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -757,6 +783,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -834,11 +861,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -915,6 +941,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1241,60 +1270,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="30">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="str">
+      <c r="H1" s="7" t="str">
         <f>"Population total (of "&amp;INT(SUM(H2:H999)/1000000)&amp;" M)"</f>
-        <v>Population total (of 421 M)</v>
-      </c>
-      <c r="I1" s="8" t="s">
+        <v>Population total (of 431 M)</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1304,7 +1333,7 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>5.2</v>
       </c>
       <c r="E2" t="s">
@@ -1313,7 +1342,7 @@
       <c r="F2" s="3">
         <v>1000</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f>F2+G2</f>
         <v>1000</v>
       </c>
@@ -1321,8 +1350,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B3" t="s">
@@ -1331,7 +1360,7 @@
       <c r="C3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>5.5</v>
       </c>
       <c r="E3" t="s">
@@ -1340,7 +1369,7 @@
       <c r="F3" s="3">
         <v>1000</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>F3+G3</f>
         <v>1000</v>
       </c>
@@ -1348,14 +1377,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>126</v>
       </c>
       <c r="C4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>19</v>
       </c>
       <c r="E4" t="s">
@@ -1364,7 +1393,7 @@
       <c r="F4" s="3">
         <v>1000</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f>F4+G4</f>
         <v>1000</v>
       </c>
@@ -1372,7 +1401,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -1382,7 +1411,7 @@
       <c r="C5" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>120</v>
       </c>
       <c r="E5" t="s">
@@ -1391,7 +1420,7 @@
       <c r="F5" s="3">
         <v>1000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>F5+G5</f>
         <v>1000</v>
       </c>
@@ -1399,14 +1428,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>5.2</v>
       </c>
       <c r="E6" t="s">
@@ -1415,7 +1444,7 @@
       <c r="F6" s="3">
         <v>1000</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f>F6+G6</f>
         <v>1000</v>
       </c>
@@ -1423,7 +1452,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -1433,7 +1462,7 @@
       <c r="C7" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>5.2</v>
       </c>
       <c r="E7" t="s">
@@ -1442,12 +1471,12 @@
       <c r="F7" s="3">
         <v>1200</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>F7+G7</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -1457,7 +1486,7 @@
       <c r="C8" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>1.5</v>
       </c>
       <c r="E8" t="s">
@@ -1466,19 +1495,19 @@
       <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f>F8+G8</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>5.2</v>
       </c>
       <c r="E9" t="s">
@@ -1487,7 +1516,7 @@
       <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>F9+G9</f>
         <v>1700</v>
       </c>
@@ -1495,7 +1524,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -1505,7 +1534,7 @@
       <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1514,7 +1543,7 @@
       <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>F10+G10</f>
         <v>2000</v>
       </c>
@@ -1522,7 +1551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -1532,7 +1561,7 @@
       <c r="C11" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" t="s">
@@ -1541,7 +1570,7 @@
       <c r="F11" s="3">
         <v>2500</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>F11+G11</f>
         <v>2500</v>
       </c>
@@ -1549,7 +1578,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -1559,7 +1588,7 @@
       <c r="C12" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>35</v>
       </c>
       <c r="E12" t="s">
@@ -1568,7 +1597,7 @@
       <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f>F12+G12</f>
         <v>2500</v>
       </c>
@@ -1576,14 +1605,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>24</v>
       </c>
       <c r="E13" t="s">
@@ -1592,7 +1621,7 @@
       <c r="F13" s="3">
         <v>3000</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>F13+G13</f>
         <v>3000</v>
       </c>
@@ -1600,14 +1629,14 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>30</v>
       </c>
       <c r="E14" t="s">
@@ -1616,7 +1645,7 @@
       <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f>F14+G14</f>
         <v>3000</v>
       </c>
@@ -1624,7 +1653,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -1634,7 +1663,7 @@
       <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>30</v>
       </c>
       <c r="E15" t="s">
@@ -1643,7 +1672,7 @@
       <c r="F15" s="3">
         <v>3000</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f>F15+G15</f>
         <v>3000</v>
       </c>
@@ -1651,7 +1680,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -1661,7 +1690,7 @@
       <c r="C16" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>35</v>
       </c>
       <c r="E16" t="s">
@@ -1670,7 +1699,7 @@
       <c r="F16" s="3">
         <v>3000</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f>F16+G16</f>
         <v>3000</v>
       </c>
@@ -1678,14 +1707,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>5.2</v>
       </c>
       <c r="E17" t="s">
@@ -1694,7 +1723,7 @@
       <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f>F17+G17</f>
         <v>3500</v>
       </c>
@@ -1702,7 +1731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -1712,7 +1741,7 @@
       <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" t="s">
@@ -1721,7 +1750,7 @@
       <c r="F18" s="3">
         <v>4000</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f>F18+G18</f>
         <v>4000</v>
       </c>
@@ -1729,7 +1758,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -1739,7 +1768,7 @@
       <c r="C19" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>23</v>
       </c>
       <c r="E19" t="s">
@@ -1748,7 +1777,7 @@
       <c r="F19" s="3">
         <v>4000</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f>F19+G19</f>
         <v>4000</v>
       </c>
@@ -1756,14 +1785,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>139</v>
       </c>
       <c r="C20" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>30</v>
       </c>
       <c r="E20" t="s">
@@ -1772,7 +1801,7 @@
       <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f>F20+G20</f>
         <v>4000</v>
       </c>
@@ -1780,7 +1809,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -1790,7 +1819,7 @@
       <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>19</v>
       </c>
       <c r="E21" t="s">
@@ -1799,7 +1828,7 @@
       <c r="F21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f>F21+G21</f>
         <v>5000</v>
       </c>
@@ -1807,7 +1836,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -1817,7 +1846,7 @@
       <c r="C22" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>30</v>
       </c>
       <c r="E22" t="s">
@@ -1826,7 +1855,7 @@
       <c r="F22" s="3">
         <v>7000</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f>F22+G22</f>
         <v>7000</v>
       </c>
@@ -1834,14 +1863,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>151</v>
       </c>
       <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>30</v>
       </c>
       <c r="E23" t="s">
@@ -1850,7 +1879,7 @@
       <c r="F23" s="3">
         <v>7000</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f>F23+G23</f>
         <v>7000</v>
       </c>
@@ -1858,7 +1887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1868,7 +1897,7 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>3</v>
       </c>
       <c r="E24" t="s">
@@ -1877,10 +1906,10 @@
       <c r="F24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>600000</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f>F24+G24</f>
         <v>608000</v>
       </c>
@@ -1891,7 +1920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1901,7 +1930,7 @@
       <c r="C25" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>5.2</v>
       </c>
       <c r="E25" t="s">
@@ -1910,7 +1939,7 @@
       <c r="F25" s="3">
         <v>8000</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f>F25+G25</f>
         <v>8000</v>
       </c>
@@ -1921,14 +1950,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>122</v>
       </c>
       <c r="C26" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>48</v>
       </c>
       <c r="E26" t="s">
@@ -1937,7 +1966,7 @@
       <c r="F26" s="3">
         <v>9000</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f>F26+G26</f>
         <v>9000</v>
       </c>
@@ -1945,7 +1974,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -1955,7 +1984,7 @@
       <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>5.2</v>
       </c>
       <c r="E27" t="s">
@@ -1964,10 +1993,10 @@
       <c r="F27" s="3">
         <v>10000</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>8000</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f>F27+G27</f>
         <v>18000</v>
       </c>
@@ -1978,7 +2007,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -1988,7 +2017,7 @@
       <c r="C28" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>19</v>
       </c>
       <c r="E28" t="s">
@@ -1997,7 +2026,7 @@
       <c r="F28" s="3">
         <v>10000</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f>F28+G28</f>
         <v>10000</v>
       </c>
@@ -2008,7 +2037,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -2018,7 +2047,7 @@
       <c r="C29" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>19</v>
       </c>
       <c r="E29" t="s">
@@ -2027,7 +2056,7 @@
       <c r="F29" s="3">
         <v>10000</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f>F29+G29</f>
         <v>10000</v>
       </c>
@@ -2035,7 +2064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -2045,7 +2074,7 @@
       <c r="C30" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>19</v>
       </c>
       <c r="E30" t="s">
@@ -2054,7 +2083,7 @@
       <c r="F30" s="3">
         <v>10000</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f>F30+G30</f>
         <v>10000</v>
       </c>
@@ -2062,14 +2091,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>145</v>
       </c>
       <c r="C31" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>30</v>
       </c>
       <c r="E31" t="s">
@@ -2078,7 +2107,7 @@
       <c r="F31" s="3">
         <v>10000</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f>F31+G31</f>
         <v>10000</v>
       </c>
@@ -2089,14 +2118,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>120</v>
       </c>
       <c r="C32" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>37</v>
       </c>
       <c r="E32" t="s">
@@ -2105,7 +2134,7 @@
       <c r="F32" s="3">
         <v>12500</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f>F32+G32</f>
         <v>12500</v>
       </c>
@@ -2113,7 +2142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>171</v>
       </c>
@@ -2123,7 +2152,7 @@
       <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>5.2</v>
       </c>
       <c r="E33" t="s">
@@ -2132,7 +2161,7 @@
       <c r="F33" s="3">
         <v>15000</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f>F33+G33</f>
         <v>15000</v>
       </c>
@@ -2140,7 +2169,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -2150,7 +2179,7 @@
       <c r="C34" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>30</v>
       </c>
       <c r="E34" t="s">
@@ -2159,7 +2188,7 @@
       <c r="F34" s="3">
         <v>15500</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f>F34+G34</f>
         <v>15500</v>
       </c>
@@ -2167,14 +2196,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>5.2</v>
       </c>
       <c r="E35" t="s">
@@ -2183,7 +2212,7 @@
       <c r="F35" s="3">
         <v>17000</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f>F35+G35</f>
         <v>17000</v>
       </c>
@@ -2194,8 +2223,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B36" t="s">
@@ -2204,7 +2233,7 @@
       <c r="C36" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>0.4</v>
       </c>
       <c r="E36" t="s">
@@ -2213,7 +2242,7 @@
       <c r="F36" s="3">
         <v>20000</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <f>F36+G36</f>
         <v>20000</v>
       </c>
@@ -2221,14 +2250,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>135</v>
       </c>
       <c r="C37" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>30</v>
       </c>
       <c r="E37" t="s">
@@ -2237,7 +2266,7 @@
       <c r="F37" s="3">
         <v>20000</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <f>F37+G37</f>
         <v>20000</v>
       </c>
@@ -2248,7 +2277,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -2258,7 +2287,7 @@
       <c r="C38" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>55</v>
       </c>
       <c r="E38" t="s">
@@ -2267,7 +2296,7 @@
       <c r="F38" s="3">
         <v>20000</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <f>F38+G38</f>
         <v>20000</v>
       </c>
@@ -2275,7 +2304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>173</v>
       </c>
@@ -2285,7 +2314,7 @@
       <c r="C39" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>1</v>
       </c>
       <c r="E39" t="s">
@@ -2294,7 +2323,7 @@
       <c r="F39" s="3">
         <v>30000</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <f>F39+G39</f>
         <v>30000</v>
       </c>
@@ -2302,7 +2331,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>186</v>
       </c>
@@ -2312,7 +2341,7 @@
       <c r="C40" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>7</v>
       </c>
       <c r="E40" t="s">
@@ -2321,7 +2350,7 @@
       <c r="F40" s="3">
         <v>40000</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <f>F40+G40</f>
         <v>40000</v>
       </c>
@@ -2329,7 +2358,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2339,7 +2368,7 @@
       <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>3</v>
       </c>
       <c r="E41" t="s">
@@ -2348,7 +2377,7 @@
       <c r="F41" s="3">
         <v>50000</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <f>F41+G41</f>
         <v>50000</v>
       </c>
@@ -2356,14 +2385,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>9.5</v>
       </c>
       <c r="E42" t="s">
@@ -2372,7 +2401,7 @@
       <c r="F42" s="3">
         <v>50000</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <f>F42+G42</f>
         <v>50000</v>
       </c>
@@ -2380,7 +2409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2390,7 +2419,7 @@
       <c r="C43" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>3</v>
       </c>
       <c r="E43" t="s">
@@ -2399,7 +2428,7 @@
       <c r="F43" s="3">
         <v>75000</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <f>F43+G43</f>
         <v>75000</v>
       </c>
@@ -2407,7 +2436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -2417,7 +2446,7 @@
       <c r="C44" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>5.2</v>
       </c>
       <c r="E44" t="s">
@@ -2426,7 +2455,7 @@
       <c r="F44" s="3">
         <v>80000</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <f>F44+G44</f>
         <v>80000</v>
       </c>
@@ -2434,14 +2463,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>205</v>
       </c>
       <c r="C45" t="s">
         <v>206</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>0.5</v>
       </c>
       <c r="E45" t="s">
@@ -2450,7 +2479,7 @@
       <c r="F45" s="3">
         <v>95000</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <f>F45+G45</f>
         <v>95000</v>
       </c>
@@ -2461,7 +2490,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>199</v>
       </c>
@@ -2471,7 +2500,7 @@
       <c r="C46" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>0.7</v>
       </c>
       <c r="E46" t="s">
@@ -2480,7 +2509,7 @@
       <c r="F46" s="3">
         <v>120000</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f>F46+G46</f>
         <v>120000</v>
       </c>
@@ -2488,7 +2517,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -2498,7 +2527,7 @@
       <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>9.5</v>
       </c>
       <c r="E47" t="s">
@@ -2507,7 +2536,7 @@
       <c r="F47" s="3">
         <v>200000</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <f>F47+G47</f>
         <v>200000</v>
       </c>
@@ -2515,7 +2544,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -2525,7 +2554,7 @@
       <c r="C48" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>9.5</v>
       </c>
       <c r="E48" t="s">
@@ -2534,7 +2563,7 @@
       <c r="F48" s="3">
         <v>215000</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <f>F48+G48</f>
         <v>215000</v>
       </c>
@@ -2542,14 +2571,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>2.4</v>
       </c>
       <c r="E49" t="s">
@@ -2558,7 +2587,7 @@
       <c r="F49" s="3">
         <v>250000</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <f>F49+G49</f>
         <v>250000</v>
       </c>
@@ -2566,7 +2595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -2576,7 +2605,7 @@
       <c r="C50" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>5.5</v>
       </c>
       <c r="E50" t="s">
@@ -2585,7 +2614,7 @@
       <c r="F50" s="3">
         <v>250000</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <f>F50+G50</f>
         <v>250000</v>
       </c>
@@ -2593,7 +2622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2603,7 +2632,7 @@
       <c r="C51" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>9.5</v>
       </c>
       <c r="E51" t="s">
@@ -2612,7 +2641,7 @@
       <c r="F51" s="3">
         <v>350000</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <f>F51+G51</f>
         <v>350000</v>
       </c>
@@ -2623,7 +2652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2633,7 +2662,7 @@
       <c r="C52" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>3</v>
       </c>
       <c r="E52" t="s">
@@ -2642,7 +2671,7 @@
       <c r="F52" s="3">
         <v>500000</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <f>F52+G52</f>
         <v>500000</v>
       </c>
@@ -2650,7 +2679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -2660,7 +2689,7 @@
       <c r="C53" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>9.5</v>
       </c>
       <c r="E53" t="s">
@@ -2669,12 +2698,12 @@
       <c r="F53" s="3">
         <v>500000</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <f>F53+G53</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -2684,13 +2713,13 @@
       <c r="C54" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>9.5</v>
       </c>
       <c r="F54" s="3">
         <v>800000</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <f>F54+G54</f>
         <v>800000</v>
       </c>
@@ -2698,7 +2727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2708,7 +2737,7 @@
       <c r="C55" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>9.5</v>
       </c>
       <c r="E55" t="s">
@@ -2717,7 +2746,7 @@
       <c r="F55" s="3">
         <v>850000</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <f>F55+G55</f>
         <v>850000</v>
       </c>
@@ -2725,20 +2754,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>41</v>
       </c>
       <c r="C56" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>9.5</v>
       </c>
       <c r="F56" s="3">
         <v>950000</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <f>F56+G56</f>
         <v>950000</v>
       </c>
@@ -2746,7 +2775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +2785,7 @@
       <c r="C57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>2.8</v>
       </c>
       <c r="E57" t="s">
@@ -2765,7 +2794,7 @@
       <c r="F57" s="3">
         <v>1000000</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <f>F57+G57</f>
         <v>1000000</v>
       </c>
@@ -2773,7 +2802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -2783,7 +2812,7 @@
       <c r="C58" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>9.5</v>
       </c>
       <c r="E58" t="s">
@@ -2792,7 +2821,7 @@
       <c r="F58" s="3">
         <v>1100000</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <f>F58+G58</f>
         <v>1100000</v>
       </c>
@@ -2800,14 +2829,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>5.2</v>
       </c>
       <c r="E59" t="s">
@@ -2816,7 +2845,7 @@
       <c r="F59" s="3">
         <v>1500000</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <f>F59+G59</f>
         <v>1500000</v>
       </c>
@@ -2824,8 +2853,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B60" t="s">
@@ -2834,7 +2863,7 @@
       <c r="C60" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>1.5</v>
       </c>
       <c r="E60" t="s">
@@ -2843,7 +2872,7 @@
       <c r="F60" s="3">
         <v>2000000</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <f>F60+G60</f>
         <v>2000000</v>
       </c>
@@ -2851,14 +2880,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>5.2</v>
       </c>
       <c r="E61" t="s">
@@ -2867,12 +2896,12 @@
       <c r="F61" s="3">
         <v>2000000</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <f>F61+G61</f>
         <v>2000000</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -2882,7 +2911,7 @@
       <c r="C62" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>5.2</v>
       </c>
       <c r="E62" t="s">
@@ -2891,7 +2920,7 @@
       <c r="F62" s="2">
         <v>4000000</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <f>F62+G62</f>
         <v>4000000</v>
       </c>
@@ -2899,231 +2928,261 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="G63" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="H63" s="3">
+        <f>F63+G63</f>
+        <v>10000000</v>
+      </c>
+      <c r="I63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D64" s="6">
         <v>0.72</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F64" s="3">
         <v>5500000</v>
       </c>
-      <c r="H63" s="4">
-        <f>F63+G63</f>
+      <c r="H64" s="3">
+        <f>F64+G64</f>
         <v>5500000</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>9</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D65" s="6">
         <v>9.5</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F65" s="3">
         <v>6300000</v>
       </c>
-      <c r="H64" s="4">
-        <f>F64+G64</f>
+      <c r="H65" s="3">
+        <f>F65+G65</f>
         <v>6300000</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>204</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D66" s="6">
         <v>3</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="3">
         <v>10000000</v>
       </c>
-      <c r="H65" s="4">
-        <f>F65+G65</f>
+      <c r="H66" s="3">
+        <f>F66+G66</f>
         <v>10000000</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="5" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>22</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D67" s="6">
         <v>1</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <v>18600000</v>
       </c>
-      <c r="H66" s="4">
-        <f>F66+G66</f>
+      <c r="H67" s="3">
+        <f>F67+G67</f>
         <v>18600000</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D68" s="6">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F68" s="2">
         <v>25000000</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="3">
         <v>10000000</v>
       </c>
-      <c r="H67" s="4">
-        <f>F67+G67</f>
+      <c r="H68" s="3">
+        <f>F68+G68</f>
         <v>35000000</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I68" t="s">
         <v>49</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J68" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="6">
         <v>5.2</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F69" s="3">
         <v>40000000</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G69" s="3">
         <v>8000000</v>
       </c>
-      <c r="H68" s="4">
-        <f>F68+G68</f>
+      <c r="H69" s="3">
+        <f>F69+G69</f>
         <v>48000000</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I69" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>18</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D70" s="6">
         <v>9.5</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>56</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="3">
         <v>60000000</v>
       </c>
-      <c r="H69" s="4">
-        <f>F69+G69</f>
+      <c r="H70" s="3">
+        <f>F70+G70</f>
         <v>60000000</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D71" s="6">
         <v>1.5</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="3">
         <v>95000000</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G71" s="3">
         <v>125000000</v>
       </c>
-      <c r="H70" s="4">
-        <f>F70+G70</f>
+      <c r="H71" s="3">
+        <f>F71+G71</f>
         <v>220000000</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J70">
-    <sortCondition ref="F6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J71">
+    <sortCondition ref="F2:F71"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/polities.xlsx
+++ b/polities.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049197B-6B43-9C47-8CAC-E48936BA7D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4746E5E-A4D0-094F-A2BC-5EDF21228D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8480" yWindow="3640" windowWidth="25120" windowHeight="15580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$71</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1274,8 +1277,8 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="H1" s="7" t="str">
         <f>"Population total (of "&amp;INT(SUM(H2:H999)/1000000)&amp;" M)"</f>
-        <v>Population total (of 431 M)</v>
+        <v>Population total (of 437 M)</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>12</v>
@@ -1343,7 +1346,7 @@
         <v>1000</v>
       </c>
       <c r="H2" s="3">
-        <f>F2+G2</f>
+        <f t="shared" ref="H2:H33" si="0">F2+G2</f>
         <v>1000</v>
       </c>
       <c r="I2" t="s">
@@ -1370,7 +1373,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="3">
-        <f>F3+G3</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I3" t="s">
@@ -1394,7 +1397,7 @@
         <v>1000</v>
       </c>
       <c r="H4" s="3">
-        <f>F4+G4</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I4" t="s">
@@ -1421,7 +1424,7 @@
         <v>1000</v>
       </c>
       <c r="H5" s="3">
-        <f>F5+G5</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I5" t="s">
@@ -1445,7 +1448,7 @@
         <v>1000</v>
       </c>
       <c r="H6" s="3">
-        <f>F6+G6</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I6" t="s">
@@ -1472,7 +1475,7 @@
         <v>1200</v>
       </c>
       <c r="H7" s="3">
-        <f>F7+G7</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
@@ -1496,7 +1499,7 @@
         <v>1500</v>
       </c>
       <c r="H8" s="3">
-        <f>F8+G8</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
@@ -1517,7 +1520,7 @@
         <v>1700</v>
       </c>
       <c r="H9" s="3">
-        <f>F9+G9</f>
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
       <c r="I9" t="s">
@@ -1544,7 +1547,7 @@
         <v>2000</v>
       </c>
       <c r="H10" s="3">
-        <f>F10+G10</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I10" t="s">
@@ -1571,7 +1574,7 @@
         <v>2500</v>
       </c>
       <c r="H11" s="3">
-        <f>F11+G11</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I11" t="s">
@@ -1598,7 +1601,7 @@
         <v>2500</v>
       </c>
       <c r="H12" s="3">
-        <f>F12+G12</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I12" t="s">
@@ -1622,7 +1625,7 @@
         <v>3000</v>
       </c>
       <c r="H13" s="3">
-        <f>F13+G13</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I13" t="s">
@@ -1646,7 +1649,7 @@
         <v>3000</v>
       </c>
       <c r="H14" s="3">
-        <f>F14+G14</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I14" t="s">
@@ -1673,7 +1676,7 @@
         <v>3000</v>
       </c>
       <c r="H15" s="3">
-        <f>F15+G15</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I15" t="s">
@@ -1700,7 +1703,7 @@
         <v>3000</v>
       </c>
       <c r="H16" s="3">
-        <f>F16+G16</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I16" t="s">
@@ -1724,7 +1727,7 @@
         <v>3500</v>
       </c>
       <c r="H17" s="3">
-        <f>F17+G17</f>
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
       <c r="I17" t="s">
@@ -1751,7 +1754,7 @@
         <v>4000</v>
       </c>
       <c r="H18" s="3">
-        <f>F18+G18</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="J18" t="s">
@@ -1778,7 +1781,7 @@
         <v>4000</v>
       </c>
       <c r="H19" s="3">
-        <f>F19+G19</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="I19" t="s">
@@ -1802,7 +1805,7 @@
         <v>4000</v>
       </c>
       <c r="H20" s="3">
-        <f>F20+G20</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="I20" t="s">
@@ -1829,7 +1832,7 @@
         <v>5000</v>
       </c>
       <c r="H21" s="3">
-        <f>F21+G21</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="J21" t="s">
@@ -1856,7 +1859,7 @@
         <v>7000</v>
       </c>
       <c r="H22" s="3">
-        <f>F22+G22</f>
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="I22" t="s">
@@ -1880,7 +1883,7 @@
         <v>7000</v>
       </c>
       <c r="H23" s="3">
-        <f>F23+G23</f>
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="I23" t="s">
@@ -1910,7 +1913,7 @@
         <v>600000</v>
       </c>
       <c r="H24" s="3">
-        <f>F24+G24</f>
+        <f t="shared" si="0"/>
         <v>608000</v>
       </c>
       <c r="I24" t="s">
@@ -1940,7 +1943,7 @@
         <v>8000</v>
       </c>
       <c r="H25" s="3">
-        <f>F25+G25</f>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="I25" t="s">
@@ -1967,7 +1970,7 @@
         <v>9000</v>
       </c>
       <c r="H26" s="3">
-        <f>F26+G26</f>
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="I26" t="s">
@@ -1997,7 +2000,7 @@
         <v>8000</v>
       </c>
       <c r="H27" s="3">
-        <f>F27+G27</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="I27" t="s">
@@ -2027,7 +2030,7 @@
         <v>10000</v>
       </c>
       <c r="H28" s="3">
-        <f>F28+G28</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I28" t="s">
@@ -2057,7 +2060,7 @@
         <v>10000</v>
       </c>
       <c r="H29" s="3">
-        <f>F29+G29</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I29" t="s">
@@ -2084,7 +2087,7 @@
         <v>10000</v>
       </c>
       <c r="H30" s="3">
-        <f>F30+G30</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I30" t="s">
@@ -2108,7 +2111,7 @@
         <v>10000</v>
       </c>
       <c r="H31" s="3">
-        <f>F31+G31</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I31" t="s">
@@ -2135,7 +2138,7 @@
         <v>12500</v>
       </c>
       <c r="H32" s="3">
-        <f>F32+G32</f>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="I32" t="s">
@@ -2162,7 +2165,7 @@
         <v>15000</v>
       </c>
       <c r="H33" s="3">
-        <f>F33+G33</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="I33" t="s">
@@ -2189,7 +2192,7 @@
         <v>15500</v>
       </c>
       <c r="H34" s="3">
-        <f>F34+G34</f>
+        <f t="shared" ref="H34:H65" si="1">F34+G34</f>
         <v>15500</v>
       </c>
       <c r="I34" t="s">
@@ -2213,7 +2216,7 @@
         <v>17000</v>
       </c>
       <c r="H35" s="3">
-        <f>F35+G35</f>
+        <f t="shared" si="1"/>
         <v>17000</v>
       </c>
       <c r="I35" t="s">
@@ -2243,7 +2246,7 @@
         <v>20000</v>
       </c>
       <c r="H36" s="3">
-        <f>F36+G36</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="I36" t="s">
@@ -2267,7 +2270,7 @@
         <v>20000</v>
       </c>
       <c r="H37" s="3">
-        <f>F37+G37</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="I37" t="s">
@@ -2297,7 +2300,7 @@
         <v>20000</v>
       </c>
       <c r="H38" s="3">
-        <f>F38+G38</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="I38" t="s">
@@ -2324,7 +2327,7 @@
         <v>30000</v>
       </c>
       <c r="H39" s="3">
-        <f>F39+G39</f>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="I39" t="s">
@@ -2351,7 +2354,7 @@
         <v>40000</v>
       </c>
       <c r="H40" s="3">
-        <f>F40+G40</f>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="I40" t="s">
@@ -2378,7 +2381,7 @@
         <v>50000</v>
       </c>
       <c r="H41" s="3">
-        <f>F41+G41</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="I41" t="s">
@@ -2402,7 +2405,7 @@
         <v>50000</v>
       </c>
       <c r="H42" s="3">
-        <f>F42+G42</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="I42" t="s">
@@ -2429,7 +2432,7 @@
         <v>75000</v>
       </c>
       <c r="H43" s="3">
-        <f>F43+G43</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="I43" t="s">
@@ -2456,7 +2459,7 @@
         <v>80000</v>
       </c>
       <c r="H44" s="3">
-        <f>F44+G44</f>
+        <f t="shared" si="1"/>
         <v>80000</v>
       </c>
       <c r="I44" t="s">
@@ -2480,7 +2483,7 @@
         <v>95000</v>
       </c>
       <c r="H45" s="3">
-        <f>F45+G45</f>
+        <f t="shared" si="1"/>
         <v>95000</v>
       </c>
       <c r="I45" t="s">
@@ -2510,7 +2513,7 @@
         <v>120000</v>
       </c>
       <c r="H46" s="3">
-        <f>F46+G46</f>
+        <f t="shared" si="1"/>
         <v>120000</v>
       </c>
       <c r="I46" t="s">
@@ -2537,7 +2540,7 @@
         <v>200000</v>
       </c>
       <c r="H47" s="3">
-        <f>F47+G47</f>
+        <f t="shared" si="1"/>
         <v>200000</v>
       </c>
       <c r="I47" t="s">
@@ -2564,7 +2567,7 @@
         <v>215000</v>
       </c>
       <c r="H48" s="3">
-        <f>F48+G48</f>
+        <f t="shared" si="1"/>
         <v>215000</v>
       </c>
       <c r="I48" t="s">
@@ -2588,7 +2591,7 @@
         <v>250000</v>
       </c>
       <c r="H49" s="3">
-        <f>F49+G49</f>
+        <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="I49" t="s">
@@ -2615,7 +2618,7 @@
         <v>250000</v>
       </c>
       <c r="H50" s="3">
-        <f>F50+G50</f>
+        <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="I50" t="s">
@@ -2642,7 +2645,7 @@
         <v>350000</v>
       </c>
       <c r="H51" s="3">
-        <f>F51+G51</f>
+        <f t="shared" si="1"/>
         <v>350000</v>
       </c>
       <c r="I51" t="s">
@@ -2672,7 +2675,7 @@
         <v>500000</v>
       </c>
       <c r="H52" s="3">
-        <f>F52+G52</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="I52" t="s">
@@ -2699,7 +2702,7 @@
         <v>500000</v>
       </c>
       <c r="H53" s="3">
-        <f>F53+G53</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
     </row>
@@ -2720,7 +2723,7 @@
         <v>800000</v>
       </c>
       <c r="H54" s="3">
-        <f>F54+G54</f>
+        <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="I54" t="s">
@@ -2747,7 +2750,7 @@
         <v>850000</v>
       </c>
       <c r="H55" s="3">
-        <f>F55+G55</f>
+        <f t="shared" si="1"/>
         <v>850000</v>
       </c>
       <c r="I55" t="s">
@@ -2768,7 +2771,7 @@
         <v>950000</v>
       </c>
       <c r="H56" s="3">
-        <f>F56+G56</f>
+        <f t="shared" si="1"/>
         <v>950000</v>
       </c>
       <c r="I56" t="s">
@@ -2795,7 +2798,7 @@
         <v>1000000</v>
       </c>
       <c r="H57" s="3">
-        <f>F57+G57</f>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="I57" t="s">
@@ -2822,7 +2825,7 @@
         <v>1100000</v>
       </c>
       <c r="H58" s="3">
-        <f>F58+G58</f>
+        <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
       <c r="I58" t="s">
@@ -2846,7 +2849,7 @@
         <v>1500000</v>
       </c>
       <c r="H59" s="3">
-        <f>F59+G59</f>
+        <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
       <c r="I59" t="s">
@@ -2873,7 +2876,7 @@
         <v>2000000</v>
       </c>
       <c r="H60" s="3">
-        <f>F60+G60</f>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="I60" t="s">
@@ -2897,7 +2900,7 @@
         <v>2000000</v>
       </c>
       <c r="H61" s="3">
-        <f>F61+G61</f>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
@@ -2948,11 +2951,11 @@
         <v>4000000</v>
       </c>
       <c r="G63" s="3">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="H63" s="3">
         <f>F63+G63</f>
-        <v>10000000</v>
+        <v>16000000</v>
       </c>
       <c r="I63" t="s">
         <v>213</v>
@@ -2978,7 +2981,7 @@
         <v>5500000</v>
       </c>
       <c r="H64" s="3">
-        <f>F64+G64</f>
+        <f t="shared" si="1"/>
         <v>5500000</v>
       </c>
     </row>
@@ -3002,7 +3005,7 @@
         <v>6300000</v>
       </c>
       <c r="H65" s="3">
-        <f>F65+G65</f>
+        <f t="shared" si="1"/>
         <v>6300000</v>
       </c>
       <c r="I65" t="s">
@@ -3029,7 +3032,7 @@
         <v>10000000</v>
       </c>
       <c r="H66" s="3">
-        <f>F66+G66</f>
+        <f t="shared" ref="H66:H71" si="2">F66+G66</f>
         <v>10000000</v>
       </c>
       <c r="I66" t="s">
@@ -3056,7 +3059,7 @@
         <v>18600000</v>
       </c>
       <c r="H67" s="3">
-        <f>F67+G67</f>
+        <f t="shared" si="2"/>
         <v>18600000</v>
       </c>
       <c r="I67" t="s">
@@ -3086,7 +3089,7 @@
         <v>10000000</v>
       </c>
       <c r="H68" s="3">
-        <f>F68+G68</f>
+        <f t="shared" si="2"/>
         <v>35000000</v>
       </c>
       <c r="I68" t="s">
@@ -3119,7 +3122,7 @@
         <v>8000000</v>
       </c>
       <c r="H69" s="3">
-        <f>F69+G69</f>
+        <f t="shared" si="2"/>
         <v>48000000</v>
       </c>
       <c r="I69" t="s">
@@ -3146,7 +3149,7 @@
         <v>60000000</v>
       </c>
       <c r="H70" s="3">
-        <f>F70+G70</f>
+        <f t="shared" si="2"/>
         <v>60000000</v>
       </c>
       <c r="I70" t="s">
@@ -3176,11 +3179,12 @@
         <v>125000000</v>
       </c>
       <c r="H71" s="3">
-        <f>F71+G71</f>
+        <f t="shared" si="2"/>
         <v>220000000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J71">
     <sortCondition ref="F2:F71"/>
   </sortState>

--- a/polities.xlsx
+++ b/polities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4746E5E-A4D0-094F-A2BC-5EDF21228D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E369C71-794D-6740-9F04-C443AC7FA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8480" yWindow="3640" windowWidth="25120" windowHeight="15580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1277,14 +1277,15 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" style="3" customWidth="1"/>
@@ -1994,14 +1995,14 @@
         <v>58</v>
       </c>
       <c r="F27" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G27" s="3">
         <v>8000</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="I27" t="s">
         <v>184</v>
